--- a/images/junk/covid.xlsx
+++ b/images/junk/covid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\New folder\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\mlee5700.github.io\images\junk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33016A-09AB-40A9-8713-4BFD5B27C5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B282195-BA3D-4DB6-B50A-0F465C7A1541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="6" xr2:uid="{9FB803C6-AA9B-4795-ABE0-71D47A495093}"/>
   </bookViews>
@@ -885,7 +885,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -918,7 +917,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -951,7 +949,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -984,7 +981,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1017,7 +1013,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1050,7 +1045,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1083,7 +1077,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1116,7 +1109,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1149,7 +1141,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1182,7 +1173,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1215,7 +1205,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1248,7 +1237,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1281,7 +1269,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1314,7 +1301,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1347,7 +1333,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1380,7 +1365,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1413,7 +1397,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1446,7 +1429,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1479,7 +1461,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1512,7 +1493,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1545,7 +1525,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1578,7 +1557,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1611,7 +1589,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1644,7 +1621,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1677,7 +1653,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1710,7 +1685,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1743,7 +1717,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1776,7 +1749,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1809,7 +1781,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1842,7 +1813,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1875,7 +1845,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1908,7 +1877,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1941,7 +1909,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1974,7 +1941,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2007,7 +1973,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2040,7 +2005,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2073,7 +2037,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2106,7 +2069,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2139,7 +2101,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2172,7 +2133,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2205,7 +2165,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2238,7 +2197,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2271,7 +2229,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2304,7 +2261,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2337,7 +2293,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2370,7 +2325,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2403,7 +2357,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2436,7 +2389,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2469,7 +2421,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2502,7 +2453,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2535,7 +2485,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2568,7 +2517,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2601,7 +2549,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2634,7 +2581,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2667,7 +2613,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2700,7 +2645,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2733,7 +2677,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3742,7 +3685,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3775,7 +3717,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3808,7 +3749,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3841,7 +3781,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3874,7 +3813,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3907,7 +3845,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3940,7 +3877,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -3973,7 +3909,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4006,7 +3941,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4039,7 +3973,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4072,7 +4005,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4105,7 +4037,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4138,7 +4069,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4171,7 +4101,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4204,7 +4133,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4237,7 +4165,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4270,7 +4197,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4303,7 +4229,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4336,7 +4261,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4369,7 +4293,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4402,7 +4325,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4435,7 +4357,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4468,7 +4389,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4501,7 +4421,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4534,7 +4453,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4567,7 +4485,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4600,7 +4517,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4633,7 +4549,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4666,7 +4581,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4699,7 +4613,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4732,7 +4645,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4765,7 +4677,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4798,7 +4709,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4831,7 +4741,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4864,7 +4773,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4897,7 +4805,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4930,7 +4837,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4963,7 +4869,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4996,7 +4901,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5029,7 +4933,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5062,7 +4965,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5095,7 +4997,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5128,7 +5029,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5161,7 +5061,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5194,7 +5093,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5227,7 +5125,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5260,7 +5157,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5293,7 +5189,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5326,7 +5221,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5359,7 +5253,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5392,7 +5285,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5425,7 +5317,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5458,7 +5349,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5491,7 +5381,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5524,7 +5413,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5557,7 +5445,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5590,7 +5477,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6599,7 +6485,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6632,7 +6517,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6665,7 +6549,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6698,7 +6581,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6731,7 +6613,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6764,7 +6645,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6797,7 +6677,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6830,7 +6709,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6863,7 +6741,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6896,7 +6773,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6929,7 +6805,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6962,7 +6837,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -6995,7 +6869,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7028,7 +6901,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7061,7 +6933,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7094,7 +6965,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7127,7 +6997,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7160,7 +7029,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7193,7 +7061,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7226,7 +7093,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7259,7 +7125,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7292,7 +7157,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7325,7 +7189,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7358,7 +7221,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7391,7 +7253,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7424,7 +7285,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7457,7 +7317,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7490,7 +7349,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7523,7 +7381,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7556,7 +7413,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7589,7 +7445,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7622,7 +7477,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7655,7 +7509,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7688,7 +7541,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7721,7 +7573,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7754,7 +7605,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7787,7 +7637,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7820,7 +7669,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7853,7 +7701,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7886,7 +7733,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7919,7 +7765,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7952,7 +7797,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -7985,7 +7829,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8018,7 +7861,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8051,7 +7893,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8084,7 +7925,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8117,7 +7957,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8150,7 +7989,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8183,7 +8021,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8216,7 +8053,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8249,7 +8085,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8282,7 +8117,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8315,7 +8149,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8348,7 +8181,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8381,7 +8213,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8414,7 +8245,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -8447,7 +8277,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9456,7 +9285,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9489,7 +9317,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9522,7 +9349,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9555,7 +9381,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9588,7 +9413,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9621,7 +9445,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9654,7 +9477,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9687,7 +9509,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9720,7 +9541,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9753,7 +9573,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9786,7 +9605,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9819,7 +9637,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9852,7 +9669,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9885,7 +9701,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9918,7 +9733,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9951,7 +9765,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -9984,7 +9797,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10017,7 +9829,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10050,7 +9861,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10083,7 +9893,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10116,7 +9925,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10149,7 +9957,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10182,7 +9989,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10215,7 +10021,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10248,7 +10053,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10281,7 +10085,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10314,7 +10117,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10347,7 +10149,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10380,7 +10181,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10413,7 +10213,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10446,7 +10245,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10479,7 +10277,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10512,7 +10309,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10545,7 +10341,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10578,7 +10373,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10611,7 +10405,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10644,7 +10437,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10677,7 +10469,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10710,7 +10501,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10743,7 +10533,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10776,7 +10565,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10809,7 +10597,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10842,7 +10629,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10875,7 +10661,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10908,7 +10693,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10941,7 +10725,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -10974,7 +10757,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -11007,7 +10789,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -11040,7 +10821,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -11073,7 +10853,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -11106,7 +10885,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -11139,7 +10917,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -11172,7 +10949,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -11205,7 +10981,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -11238,7 +11013,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -11271,7 +11045,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -11304,7 +11077,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -12201,7 +11973,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t> (AVG last 7 days</a:t>
+              <a:t> (current</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
@@ -12303,7 +12075,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{574E4540-7F00-44EB-8953-DFA0A864AC93}" type="CELLRANGE">
+                    <a:fld id="{D8A0AC1C-DF9E-486C-A40D-7A0797883E89}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12321,23 +12093,55 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9901ED41-1978-453C-A9D4-A62BA1EFB93B}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{32980299-52FB-4FE8-B9CA-5D3103488D90}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000001-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5B22271E-A131-4973-BFF0-A1A717FC1B3B}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12358,19 +12162,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{61CDD5A2-E77D-4AD7-A03F-89E6E29AA4B4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000002-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1A22D555-2DC0-48E7-A422-010A50520CC2}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12391,19 +12195,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5BD6CBDE-5B57-402A-BF62-A6D11184176C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000003-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6C82A66A-04E2-43A9-AA0E-37F7FAE20FA7}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12424,19 +12228,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0AEA73F9-0C70-4150-AF8D-5A78C60BB4AF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000004-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2624169D-AE33-4940-BC64-96D4076B4102}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12457,19 +12261,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0FB74838-52B3-4706-A88A-3DA683B54A4B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000005-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4C57C322-B7CA-44E1-B979-F6F3F7256165}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12490,19 +12294,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{65688A65-BDFF-4038-931F-FCED7B4FDC1E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000006-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{53201EE4-7456-49A3-9475-1D51A53BAE94}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12523,19 +12327,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0C42C1CA-DA45-43D7-B411-9D6FDCAF48E9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000007-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7C11602E-6357-44DB-951A-23A2E3889DDA}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12556,19 +12360,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E7571E90-C012-487F-BA99-E9A95176F634}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000008-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{81DC2DC4-B089-4858-88D0-30A3FDA06107}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12589,19 +12393,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{345894B3-FC25-4938-B74E-D291202E197E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000009-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B3228388-79B4-426F-8FEF-D36769397949}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12622,19 +12426,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B92A4062-60C0-4752-AB1A-771DAF9D49AF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000000A-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{74DFFB29-4FDF-4C9B-824C-DC69B05E86AF}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12655,19 +12459,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E96E446A-1938-49B5-8E0A-43DE8D3019B0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000000B-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A9DE75E2-ADB6-4CA9-B4AE-081ED9376DF9}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12688,19 +12492,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4C1991A6-AF15-4F5A-96ED-27A69DBECDDF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000000C-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{71664C8C-4ACE-49E5-99B5-E22161CEBD1C}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12721,19 +12525,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F6144B5B-BB9E-43AD-8757-9FC9BFF8E60E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000000D-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BBA68AE9-D621-44BA-9425-080F6637F1D7}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12754,19 +12558,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FF238324-1E9D-4B45-9744-05CB63CEE655}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000000E-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DB84A438-D07C-40DB-B488-2B247A744D57}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12787,19 +12591,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{895D0AB4-B684-41C4-8050-E685760993BD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000000F-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F6B3CEBA-1EDC-442B-8790-F8D0BE4FA5A1}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12820,19 +12624,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{50817143-2189-4174-92CC-82AAD9292553}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000010-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F02668A1-0E68-4775-9167-1BC1CEA3415A}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12853,19 +12657,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EE3EE195-004C-401D-AB37-09550E9CB32F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000011-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F4632012-7E03-4AD7-9D73-1CB2B68F938B}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12886,19 +12690,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{AED1B48A-BE6A-4468-A0D1-CF4667050545}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000012-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6EF60977-F71A-4E5E-AEEE-A6554BE98806}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12919,19 +12723,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3712CCD9-5235-4CE9-87C5-3EF3A18A6880}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000013-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8A7FF521-E896-4757-AACF-316EA43A02C2}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12952,19 +12756,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{242A2FE1-ADC4-443D-AA62-D7652B8B356A}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000014-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{82858CA6-72C8-43B8-B181-9B07D1809998}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -12985,19 +12789,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{179E322C-E9BF-43FD-82FA-8F861DC6AC1F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000015-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A6AC2F48-84C4-4C84-A30D-59FADB4BA746}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13018,19 +12822,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3488E8EA-2B55-49CB-8742-D5C7D1FCB374}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000016-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1928FA89-D10E-4107-94D2-8E803BB4D8BC}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13051,19 +12855,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{20AE0757-894B-4727-92B4-3CA05A7E8D99}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000017-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5A19FCAD-2E81-4730-AC7D-ED2E0F9A4DBB}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13084,19 +12888,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{602F3D84-78F8-46AD-B5CB-EF65757CEC1C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000018-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B3D4D085-6C56-4A85-9891-63B6C7F9AFB9}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13117,19 +12921,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{52B65E66-339A-41EA-A513-AFA930693E39}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000019-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{16881B9C-45E2-49B0-9156-5672A8E2FDEC}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13150,19 +12954,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F0B1DC30-6648-446A-9270-E6F7F7B6EF50}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000001A-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{29151958-D17F-4279-8B78-A5DE709A797D}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13183,19 +12987,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C02BE926-9F3B-43CC-8B02-BB3681E42337}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000001B-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{76642266-453C-44F2-998D-FDF605264F6E}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13216,19 +13020,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{521F498C-1BA7-4553-BBCA-3EF64EA9E3AB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000001C-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F199D7E6-30A7-4A5D-8649-403C3B2B93D8}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13249,19 +13053,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{84488E47-3036-441A-912F-6399606B2740}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000001D-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{94499D0F-E151-4FB3-9E2D-B3EDDFC2E52D}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13282,19 +13086,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="30"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3BAF7ACC-A430-4730-BB40-C9F17D903BA9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000001E-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FD12275A-C24B-4A5D-994D-F96045BE1439}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13315,19 +13119,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="31"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5D109859-E53A-4CE5-8016-9C05113138D0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000001F-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{178471AE-704B-4EB6-B994-C0E274DE5244}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13348,19 +13152,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="32"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0F9596C9-B3B6-4AE1-8D01-595614F40F11}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000020-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5E9D0734-ADD7-4AEE-A24E-3656739A422A}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13381,19 +13185,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="33"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{AB7E938E-895A-49C8-8526-4528D5EF1E22}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000021-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9F11DA3A-3E99-46DB-8638-7A79EAA5DA81}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13414,19 +13218,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F0F70263-0B03-4E1E-8B79-C4AAF51D8CE3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000022-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{698C64B5-AE31-4349-8998-2500284CA266}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13447,19 +13251,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="35"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{40628D61-5113-4881-A78F-B10441E566EF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000023-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8FA260EC-63D2-4AE5-89BB-4556FEFEFBF1}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13480,19 +13284,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="36"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E8EBC54B-547B-45FA-ABE0-5D803905D4CA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000024-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FDD44BE6-7E0E-43A0-BEF3-A2B269DE942F}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13513,19 +13317,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="37"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5D105B99-DEDA-458D-BC96-7FDF39E56E70}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000025-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2DB5163F-BE6F-4E3C-AF9E-E310041FEF58}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13546,19 +13350,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="38"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A59C4573-E55C-45CA-8A4A-269CE44E0C43}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000026-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F635835B-4DA7-411A-BFE4-BAD44337EC10}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13579,19 +13383,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="39"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{624B0DE1-9CBC-4351-816A-329DE228AB08}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000027-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{14331153-CDFC-4464-9A9A-3FA89F9FF48C}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13612,19 +13416,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="40"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{496A4DA9-531F-4672-BD06-AB4613803343}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000028-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7F6E5353-3D53-4225-9494-9778B07CEACF}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13645,19 +13449,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="41"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{39CB21BD-8EA6-47B5-B929-A6C86BF4BB39}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000029-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FE901FBC-F3BA-4BFD-B8BC-8D45A8856D75}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13678,19 +13482,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000029-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="42"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{465BA5B9-CD11-4060-906F-CF0D33E29A2D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000002A-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3EB80B17-E707-4BC1-A3D0-62319D7568DC}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13711,19 +13515,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002A-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="43"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A67009DA-B528-40CA-B8C5-23E0753597D0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000002B-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A804A63D-6223-4924-86BD-9F445311E1DE}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13744,19 +13548,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002B-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="44"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C079AD42-26A8-490F-B0F3-1524335E4245}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000002C-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DCD761F3-19F4-42D8-82B6-CF933C740192}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13777,19 +13581,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002C-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="45"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1CAF439E-36E4-48D5-AD7E-CA85C928527F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000002D-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C516F05C-5BEA-459D-AE26-59C1A441D098}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13810,19 +13614,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002D-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="46"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C37B4173-3B5C-48A9-A253-4CD508B756C4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000002E-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AD424C22-E2C5-4C19-9D71-4BBE561B2E7F}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13843,19 +13647,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002E-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="47"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BEBF7B40-F289-46FD-939C-47A5117AF17D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000002F-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="48"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E082226A-CC28-4CB8-8B83-B858748FA437}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13876,19 +13680,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002F-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="48"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{97BBE94E-BAF2-48C2-A0F5-5FEE7B439235}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000030-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{75F8DDF9-9E86-4E5C-893A-C38E14EC914D}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13909,19 +13713,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="49"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A4C1576B-1E38-41A4-AD38-391204ACAAA8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000031-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CBD18171-D9CF-4943-A4B4-2D4641A9835E}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13942,19 +13746,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="50"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C493FBBF-217B-4D69-ABFF-DA3AF6C39176}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000032-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2E14F01C-A882-4A78-8821-D62AFEFD0D8C}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -13975,19 +13779,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000032-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="51"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FA548194-1145-4D44-98E9-22D4F6F70C16}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000033-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{321E8036-7F73-4425-B1CB-DEB9DB4AEEA7}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -14008,19 +13812,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000033-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="52"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{29C71C4D-745E-4B3E-BCE2-8EDCC6FE9DA6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000034-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="53"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D6F560F8-9A0A-4C0A-8FE1-2AF7024BB552}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -14041,19 +13845,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000034-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="53"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F8AB70D3-2820-4C8F-A515-6AD0897398AA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000035-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3068FA7E-196F-4DDD-878E-0B7C539EDA8E}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -14074,19 +13878,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000035-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="54"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BE434F0E-6D98-4F35-86D6-BD38E0CCF33E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000036-7F91-4A54-81E1-F2D3D0E53F65}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="55"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{829308D0-7AD7-49BF-91B0-F574E6AF64A0}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -14107,39 +13911,6 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000036-7F91-4A54-81E1-F2D3D0E53F65}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="55"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8BA17A8E-8A74-403F-BFFB-6BB7BE0DD5CD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-AU"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000037-7F91-4A54-81E1-F2D3D0E53F65}"/>
                 </c:ext>
               </c:extLst>
@@ -14151,8 +13922,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0F86628-0C09-4EBD-8C9B-73107B7EA552}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B605F9EE-17F3-4F1F-BFF0-DFEC97430815}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15066,11 +14837,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t> (change last 7 days</a:t>
+              <a:t> (weekly</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t>)</a:t>
+              <a:t> change)</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -15136,6 +14907,39 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-2A8D-48B5-9689-7EEE848934DF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -15144,18 +14948,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{522E748E-BDE2-4BC0-AE4D-1BF0658700B3}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -15171,8 +14981,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A018DF59-15F0-47FD-BA8F-1B13445576EA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{4F4458B1-2B86-4CD0-AB9D-58112A2C1B88}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15204,8 +15014,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E70A5BC-09BF-4EF2-89EC-A5E5692B03DF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{3DE274E1-BBE0-412E-88AE-3A04ADD71A86}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15237,8 +15047,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE0FD759-11EE-47D3-8C63-C8AD070A03AB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B4B06724-A5AC-411D-9846-B7B34EC60057}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15270,8 +15080,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41CF041F-889F-4959-9F79-9119B1BE80AC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2683E723-DEE8-4941-A23B-1951A81CDB1B}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15303,8 +15113,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40856176-75DE-4689-B8F6-A77B8438C596}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{35E385E5-3D15-4544-938B-59A9B4D7CF5C}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15336,8 +15146,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{380F81ED-F981-454E-84CD-71E7BC203550}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6276F21A-C8F9-439B-BED9-A382B38504B1}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15369,8 +15179,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FDCA5DE8-FF2C-459E-A2C4-0413A7C99958}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{A7D6A91B-EA20-48FB-B25B-98B9227C2B52}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15402,8 +15212,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C60C124-B665-49A1-A1D8-EE4365810A9E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{56900831-F113-4525-AA37-909D9B8EC617}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15435,8 +15245,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{876E498A-F16B-4160-A8AF-2FE46893170E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{5BF2692D-D850-4444-94A7-7E8F1275CF75}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15468,8 +15278,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7BC47C7-5887-49A6-8ED6-14D0B8634648}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0A7C829D-6787-4EDB-9415-E5CA20A06039}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15501,8 +15311,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D517781-28E5-42A6-9CA8-5329883D926C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{99655516-DBC4-41D9-939C-94349434B3C8}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15534,8 +15344,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8998F6B-C6CD-4DDB-8441-2B44D6510685}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{04120EBF-7BD4-42C8-9892-EF0F694E3CB4}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15567,8 +15377,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{005DE658-DB5D-429A-A858-AAF83634538E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{94D21680-0B8D-4BDC-B039-128776F86FA0}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15600,8 +15410,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{643D20D5-618D-4939-9BA4-D2300E07CAFC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{BE63A10C-740E-4339-ADFF-04B158D78F9E}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15633,8 +15443,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{044E2820-87FF-4A0B-AFF7-2596F1251364}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{40B4B959-2626-4C09-9FA9-747D4580D829}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15666,8 +15476,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2525B35B-1F72-46D8-BD4D-CF1119CC86AC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0C63EE54-2154-4F79-A2F1-286D4C885E80}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15699,8 +15509,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB8AD9C3-E274-41FF-A696-8EE5FC1CE124}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{AD39BC16-1580-479D-903C-BDB273EAA3BF}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15732,8 +15542,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A35093A-9075-452D-856A-299C5E9EE76D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{95E73877-A53A-46A8-BE54-0300FFF8D689}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15765,8 +15575,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8478B9C3-4C70-4CCE-A035-5EC8D871A52D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8C44F6E5-5D23-450C-ACFA-7D9DFC8D5650}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15798,8 +15608,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA063636-F047-4FC0-9783-CF90B233B597}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{64331072-9DBD-4DA4-B4D5-3E4945DADEF9}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15831,8 +15641,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A92ED714-7D88-4506-8A80-B6C51CB6C81E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{910D1A3B-9CB6-4DE7-8CBE-A2804B26F1E4}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15864,8 +15674,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35C475F0-46D2-4EB0-8FE6-A8BC9D6679D6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{A38DB3DA-5E23-48B8-A6BC-85793E803C20}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15897,8 +15707,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0928FB56-AF19-4DF6-AB83-144FE062A5EE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{FC87F835-27CF-4210-80B4-702D16FF2AA4}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15930,8 +15740,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88C35233-C048-471D-BCA1-97B1F265B748}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6F31BF49-CC39-46E7-A776-51E4AE3BDBF8}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15963,8 +15773,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FA99E22-AEC0-4E47-816E-35BB315F61C8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{44B9B174-88BF-41D5-B310-78F61181D6F6}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -15996,8 +15806,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{309DEB11-BBEC-4D87-9509-34AD765740C7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6F0D4B9E-512F-4491-A2F0-980E388136E7}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16029,8 +15839,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA18563F-0C15-4310-BE59-EB543CEE1EBE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CE13411E-B897-4DC1-8730-8A3074F91728}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16062,8 +15872,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C9B19DB-1FB9-4668-9850-F1743C80E85B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{0D71F01C-CFAE-4BDC-A155-6B13E0C4272E}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16095,8 +15905,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E05C781-869C-4C0A-8883-ADEDC15C61D5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{F6A3721A-FAC0-4FCD-BE61-23D8E96AB4B8}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16128,8 +15938,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC579124-1275-44BA-96F3-418EEC2C87DB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{355CDCC7-6274-476C-8254-85DEADAE5F91}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16161,8 +15971,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39174636-2CA1-408C-805B-E5F7A154AE3C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{090D30FF-B131-4B52-87B8-9924680FBD63}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16194,8 +16004,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01473441-67EF-4030-9877-9F5D0E3223EB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{27F29F16-665E-4402-B51C-72BDDA27C4DC}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16227,8 +16037,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5CFCA2F-DD0C-4E1A-9845-16DDAFDFBC71}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{969175C7-E97B-4EDA-A004-BF5B859C21A5}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16260,8 +16070,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B21071D0-9612-4F1F-905E-C8A99C62CB1F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{EFCA2C3E-0F29-4598-AFA1-43EDB3359620}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16293,8 +16103,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{845F1B83-C397-42BE-AA08-CDF061087F9F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{340CA138-1E9D-4558-8CE2-6256F477203A}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16326,8 +16136,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A46BC447-9487-412F-B0B9-1D437CB2D482}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{17662738-446C-4580-A126-6955100DD831}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16359,8 +16169,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C176204-2756-4E97-8686-078BB36FE154}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{361CF373-C9E3-4768-8B3E-505F7843330A}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16392,8 +16202,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E89A9C10-EA16-468E-B44F-8272DA419759}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{575DA278-3C45-4FBF-99F6-20858B172CBA}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16425,8 +16235,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7519A0C-6BAE-4136-8FFB-5967775A9052}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{E6165E7B-D6D1-4EDE-9E71-A27DBDB858FF}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16458,8 +16268,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8FB4B78-6BAF-4E5D-BCBA-9812D1E69D96}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{FD8B2808-8983-4ABE-B994-51DA4F6F1437}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16491,8 +16301,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57301C25-4E5B-424A-A73C-4E9E4F177CA2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8171796E-BDE5-48E7-A0E1-8E4D1E82AE7E}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16524,8 +16334,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A79BBE4-31E5-4D67-A98A-ED6DA95A544F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{EBE53044-0059-43DB-97B8-1F4BD87CC588}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16557,8 +16367,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD491388-EAEF-4F74-9FE7-51D2E3C7C2C8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{4D35A948-297F-4782-9186-DC311B402BC9}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16590,8 +16400,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01E2F73C-B61E-4D0D-874E-DB42F823D32B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{C906D387-5070-4C24-9457-ADE7B50D6589}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16623,8 +16433,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{913F9CD2-9651-4949-ACD8-2C83C473BCA2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{DC986445-5716-4ED7-A7B8-50B2F6EB04FB}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16656,8 +16466,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6DB1EA5-B0E6-4E93-9066-57721FCD24C7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6AFD2715-4315-4944-B37F-D619AC13968B}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16689,8 +16499,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16D7A18D-7116-493D-9D74-2E7DB8E6A671}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{85B3C2E8-10A5-408D-9048-364F1068CB6F}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16722,8 +16532,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEB2EE5F-4285-4701-B086-B87113F0B42B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6424C173-8C72-45D7-A48C-7256748D4578}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16755,8 +16565,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D4F1778-A9ED-4CD9-AB6A-787CE20C3760}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{47FA021D-F444-416F-AC95-445863936B0C}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16788,8 +16598,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A51E0A27-4EE3-4942-A67F-0F3821BC46FD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8556AA2B-D9D2-4422-819D-9AE203505F1F}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16821,8 +16631,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6845F74F-F3E8-4BCE-85FE-FF14D50FDD0C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{039EB695-48C4-4391-868B-FFD91C10FCE3}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16854,8 +16664,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EEED7B1-98B1-4965-AA90-827453EA495E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1CCE6B2A-6D1D-4411-8045-1A488D302500}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16887,8 +16697,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A0A630B-EB54-45E1-9BF3-CA5D8C345AEF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{25A42816-CF09-4086-8B38-98CD58CD84C0}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16920,8 +16730,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF8991C2-829D-4396-9978-459208039254}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CFA3660D-ADFF-48EB-9204-2DEDA8F5DAB5}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16953,8 +16763,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9167A92C-E170-449B-9960-7B1B51CCD3B8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2BF3F0B1-177E-4206-AC50-9948867EEA11}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -16986,8 +16796,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B68D8B28-6936-4F81-B01E-A9E605C4052B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{91720F0D-9ED6-4D50-97BB-083DA5A6F460}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -17255,6 +17065,9 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>-0.12417061611374408</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -17770,7 +17583,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -17906,11 +17719,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t> (AVG last 7 days</a:t>
+              <a:t> (current per 100k</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> per 100k)</a:t>
+              <a:t>)</a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -18008,7 +17821,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E65E6926-7C0B-45F8-824D-751437BDAEE8}" type="CELLRANGE">
+                    <a:fld id="{65765947-E33C-46BF-9711-AC9DECAFE2D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18026,23 +17839,55 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D901BFC7-BB52-4422-8089-4B30212E3523}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-AU"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FC9FF3FF-032D-46ED-9BC9-4F0DC240B632}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000003-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8A894997-017F-4A36-A8D7-476BE859852F}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18063,19 +17908,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4A2C39DF-2A68-4C15-92E6-12D6A1996FAC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000004-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{37AB0996-5F44-427F-A1EF-3B269112D555}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18096,19 +17941,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C5401823-C90D-4C78-987D-64CE71E2ACD2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000005-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{954C276A-F3D5-4370-B15C-9C5B28C2A4D7}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18129,19 +17974,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{26BF539B-FFB8-413D-9C19-C7400C575897}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000006-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D7434459-2D0C-4B3B-8701-A3DED2B5FF4C}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18162,19 +18007,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FDDF0165-914C-4385-8508-D549494544B5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000007-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F251D34C-1AE3-4632-8BB7-5C92D3A640CE}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18195,19 +18040,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F7F0B6D3-4EAB-433B-AAF7-670F6D546CE8}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000008-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6E2EEABE-29BD-4488-B92A-7728E9AD2333}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18228,19 +18073,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0BA82C3D-7F0F-494B-94ED-C9C8E038AF45}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000009-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CA1FB365-229F-4360-9FD3-B000C4C5A613}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18261,19 +18106,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FC600B5C-A4EA-43B6-BA3A-65502AEE9DB4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000000A-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6B67A9BE-8C4B-467E-993E-9A5A791ACFD6}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18294,19 +18139,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BF36B5EC-6A22-494F-B9B7-B1F1B2BA7659}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000000B-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8B073D33-EC4D-43CC-A51E-523DC1ACB02C}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18327,19 +18172,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5A9BA3B6-EC64-4CB5-B47F-F24C29069A1F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000000C-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{78E268A7-A6E0-4CA4-9F3F-1F1458A41675}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18360,19 +18205,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A084C4E0-8948-4A15-B31A-6E8AC2D1619D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000000D-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{07118847-1108-4E8C-BE8C-8871A6013FC3}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18393,19 +18238,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{294573AF-953D-4425-BD95-87250B8B8972}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000000E-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{51B2741A-600C-465E-9865-A5B5BE4EFF09}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18426,19 +18271,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D9363962-2E01-4CC1-9308-908B934636A4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000000F-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9DD91EFE-F570-45C3-819C-0C7BF6E5768F}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18459,19 +18304,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{379C4C49-2400-47D3-ADE9-7DA01B356A34}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000010-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E80D702A-BA0B-4A89-A724-F96505FBC027}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18492,19 +18337,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EFD60F2D-EE24-4D9C-87A2-55E5171B9895}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000011-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6987B540-10DC-4886-8CD3-4729B2DB6A17}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18525,19 +18370,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{113B1E4F-1A2F-4B8B-A198-030FBFEC9389}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000012-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{02ED389A-81F2-4051-9D0C-20797CA2E85F}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18558,19 +18403,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F822562C-15B8-4DC8-97AB-86A6DE089E99}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000013-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FBA3A286-94AB-4024-AA6D-CAC7F9450B93}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18591,19 +18436,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{59212740-7D30-443B-896A-EB1BB9747D6F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000014-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6D237861-D4C4-4F46-9C83-C77833193740}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18624,19 +18469,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{2B60AFB5-544E-45C6-8F85-904B827146B6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000015-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FDEF3760-FE4E-4914-A471-8E8D07A30B0E}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18657,19 +18502,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="20"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C85217A7-8988-47E3-ABCF-DEDAAEC12078}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000016-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1E7EDC08-E17C-454C-9157-B91B1E93005A}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18690,19 +18535,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="21"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{2C592EA2-313C-4734-B092-248556B49DBA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000017-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EFAE1FB0-5E53-451B-AD7A-7F33566DEB4D}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18723,19 +18568,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="22"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5417CB60-6958-4295-94AF-C509723D69EF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000018-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0D687699-019E-47B8-9BE4-F8A0965A1916}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18756,19 +18601,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="23"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0EB92770-55BB-4AAC-85F0-4172BEBCEAF9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000019-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DE847497-BDF1-4FA0-A1B1-D8EB623B27A1}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18789,19 +18634,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9390BA4C-E6B1-4EFE-8FC2-64A4912CD06E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000001A-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E720A96E-BE5E-449B-992E-39FB05EC454A}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18822,19 +18667,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="25"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A61A9854-5082-48E1-BD87-EEB2AB871F87}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000001B-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D0D05732-4514-4DB2-82D1-EEDE9014A937}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18855,19 +18700,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001B-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="26"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8B997D01-8ECE-411D-8B3F-0F5FFE103B96}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000001C-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{86B085AD-4B01-45DA-92AC-42B53C3543DA}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18888,19 +18733,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001C-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="27"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6C20DFFA-F582-421B-872F-5B2CE261CCE3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000001D-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="28"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{95FAEBCE-C71E-41D8-BF7C-DACA789B38A9}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18921,19 +18766,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001D-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="28"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{186F9E04-8438-4985-A058-E132EE981366}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000001E-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="29"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0539343D-8B58-4374-B135-6DE185C663D5}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18954,19 +18799,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001E-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="29"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E0F366EC-032B-42F6-A21C-B01419BB1AFB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000001F-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="30"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6C263F17-5C03-436E-A65C-DE2B5B6570A3}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -18987,19 +18832,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="30"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C55CECC5-CAD4-4416-85B7-B90EA8151106}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000020-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="31"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{74BBFF0F-883F-46E3-8C10-21070D7219FA}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19020,19 +18865,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000020-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="31"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{83F08B62-0423-4A0D-B3C9-AB5ECBE78A6D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000021-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="32"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B45A38F9-C1CE-43F3-B001-0124EF4A9D7C}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19053,19 +18898,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000021-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="32"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BC8951E6-A058-47EE-BA2C-40D59D5BCED6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000022-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="33"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B6DBE164-6636-4194-B3E4-335E77D1E020}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19086,19 +18931,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="33"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{61FE0C7B-A865-4A31-89DD-54E3A20FCCBA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000023-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="34"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DBDB21B5-AF0E-463D-850F-3C1F22250424}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19119,19 +18964,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000023-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="34"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{702DB505-664A-45A3-9A3E-B2635E6F5F4D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000024-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="35"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F3F55DCD-7B0E-406F-8AA2-046EF74FE184}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19152,19 +18997,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000024-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="35"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E5AA8D4F-792E-452C-9C77-0C58017B8FD5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000025-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="36"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F79D6DC5-603D-4D27-8205-B7B57FF35E38}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19185,19 +19030,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000025-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="36"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D0035D74-8FAE-42F4-8166-7973A1DC80BB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000026-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="37"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{58C9FCA2-9187-4953-847F-D8464EADA997}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19218,19 +19063,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000026-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="37"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1C943522-F95D-4598-926A-C0DE1AAEE054}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000027-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="38"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F9391E60-11A0-46FC-9786-A49D8EAC1B07}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19251,19 +19096,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000027-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="38"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E179BA3F-8C44-4DE9-8343-183B71302DB1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000028-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="39"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{23932D03-F72D-470A-9B26-BEE8028713F1}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19284,19 +19129,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000028-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="39"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F1BDE995-56BE-4C92-9B6C-DFA6986F0D65}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000029-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="40"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{617ACC75-526E-4072-8CAD-0AFB11D474DB}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19317,19 +19162,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000029-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="40"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6E852DC3-0B99-4A33-A440-8A312FE416F7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000002A-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="41"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{905F2A81-EEBA-457F-9D7F-220E1095A2B5}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19350,19 +19195,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002A-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="41"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D6D29F80-31E2-4834-A307-40DAD31CD160}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000002B-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="42"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CB4C8295-A254-4B87-BFA5-0DC100736F2D}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19383,19 +19228,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002B-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="42"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4D7D39DA-BE28-41F7-A0AC-BF4B17EDEBE0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000002C-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="43"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{37FC86AB-DF32-42B5-A764-EDDF21E088E4}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19416,19 +19261,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002C-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="43"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CC3C4C1B-5113-471C-8B6A-0468BC46F381}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000002D-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="44"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6E721767-C025-4846-B32F-26410E9F3540}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19449,19 +19294,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002D-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="44"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1E3F03EF-39F6-4C98-A8CD-ABC0F1A68173}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000002E-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="45"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0E335197-29AB-4FBD-865A-D46746286827}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19482,19 +19327,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002E-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="45"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5B755582-5E73-4A9A-B1C7-1A1DC0DB1FCB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{0000002F-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="46"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CA263F98-B241-4962-943A-697C861EBF39}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19515,19 +19360,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000002F-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="46"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{859F3CD2-EEEA-4C04-A5D3-DA6B53D914A1}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000030-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="47"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AFA70D53-A5A3-4816-9D6A-632A8F71BCA8}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19548,19 +19393,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000030-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="47"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3BD41E29-B275-4725-9939-AAD03B1723C7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000031-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="48"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B522F862-27E2-48F4-90FE-8D3FA826AD5B}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19581,19 +19426,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000031-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="48"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{77F50574-8CDA-4D39-920B-28FABAAFF3FE}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000032-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="49"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{14964FC2-B213-4E70-A708-0EEB91891044}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19614,19 +19459,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000032-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="49"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{65074039-54D8-410E-8D4B-438B36D43335}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000033-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8E0FEECD-E24E-45B8-917B-CCEDC92B0C17}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19647,19 +19492,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000033-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="50"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{34001E4B-56C5-4A9B-AA57-308B0355486F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000034-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="51"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8A0E0178-7FCE-4CA9-8C17-86EE6436EC93}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19680,19 +19525,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000034-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="51"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5383FD72-7F6B-4027-9B02-742D5FD4B775}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000035-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="52"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E62CC52A-2BAE-485C-B838-7D72F92FA329}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19713,19 +19558,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000035-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="52"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6CD2AA05-A632-4E05-AD5C-A4B84BB34B38}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000036-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="53"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FB636255-0AE8-4677-9BE0-8C9BBF9CAB24}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19746,19 +19591,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000036-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="53"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{464E53DD-D302-44B9-956E-7611011EDFE4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000037-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="54"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{02024CF6-D458-485D-8D93-4719F4013B8D}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19779,19 +19624,19 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000037-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="54"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{34C88440-D62F-43F6-8BDD-28708C009B15}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                  <c16:uniqueId val="{00000038-D719-4B0E-9304-570F8433E45F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="55"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2023DE55-874B-489B-B40A-F5A1EEB31FF8}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -19812,39 +19657,6 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000038-D719-4B0E-9304-570F8433E45F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="55"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6D65B4AE-75A4-4D66-BFFA-5BFCA8163AB2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-AU"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000039-D719-4B0E-9304-570F8433E45F}"/>
                 </c:ext>
               </c:extLst>
@@ -19856,8 +19668,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB9E013A-70EB-4010-ACB6-977286FBBC13}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{D8D0C585-D4AA-494B-B1A4-A0E63AE3A947}" type="CELLRANGE">
+                      <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -26357,7 +26169,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -26385,7 +26197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -26455,7 +26267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -26819,7 +26631,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -26842,8 +26654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5A8172-95C4-4C32-BDC2-F2B26F5D0E00}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29714,8 +29526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ED0388-891F-46E9-936B-11C429190372}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB44" sqref="AB44"/>
+    <sheetView tabSelected="1" topLeftCell="AO2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BF4" sqref="BF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29793,7 +29605,10 @@
         <f>210/81.66</f>
         <v>2.571638501102131</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="6">
+        <f xml:space="preserve"> (1055- 1186)/1055</f>
+        <v>-0.12417061611374408</v>
+      </c>
       <c r="K2" t="s">
         <v>195</v>
       </c>
